--- a/SQL_Kozynest/qna.xlsx
+++ b/SQL_Kozynest/qna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYK\Desktop\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161CCC24-7668-4892-8433-6504A52557BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FECB7A-196D-42E8-B984-37BDF36A1257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="168" windowWidth="12912" windowHeight="13212" xr2:uid="{12BBC76F-7EAB-44B5-8930-5B4B234FBEF9}"/>
+    <workbookView xWindow="2304" yWindow="1188" windowWidth="12912" windowHeight="13212" xr2:uid="{12BBC76F-7EAB-44B5-8930-5B4B234FBEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>qseq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ftyvp204@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ymmta979@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>erzot531@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vfbrd961@gmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,18 +174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>csb733@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ufhuy889@daum.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>olw501@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nphzt697@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cdf1126@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>yxq374@daum.net</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +318,9 @@
   <si>
     <t>기상악화로 인한 취소 문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mjkim87@naver.com</t>
   </si>
 </sst>
 </file>
@@ -714,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A6822C-C21C-4CDE-9967-0FEB837830EA}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -757,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>20220201</v>
@@ -780,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3">
         <v>20220203</v>
@@ -803,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>20220203</v>
@@ -823,16 +806,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <v>20220204</v>
@@ -849,13 +832,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>20220205</v>
@@ -872,13 +855,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>20220211</v>
@@ -895,13 +878,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F8">
         <v>20220212</v>
@@ -918,13 +901,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>20220216</v>
@@ -941,13 +924,13 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F10">
         <v>20220218</v>
@@ -964,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>20220224</v>
@@ -987,13 +970,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F12">
         <v>20220224</v>
@@ -1010,13 +993,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13">
         <v>20220225</v>
@@ -1033,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>20220302</v>
@@ -1053,16 +1036,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F15">
         <v>20220306</v>
@@ -1079,13 +1062,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F16">
         <v>20220402</v>
@@ -1102,13 +1085,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F17">
         <v>20220405</v>
@@ -1122,16 +1105,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>20220425</v>
@@ -1148,13 +1131,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F19">
         <v>20220613</v>
@@ -1171,13 +1154,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <v>20220803</v>
@@ -1194,13 +1177,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>20220815</v>
@@ -1214,16 +1197,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F22">
         <v>20220917</v>
@@ -1240,13 +1223,13 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>20220920</v>
@@ -1263,13 +1246,13 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>20221128</v>
@@ -1283,16 +1266,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>20230401</v>
@@ -1306,16 +1289,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F26">
         <v>20230401</v>
@@ -1329,16 +1312,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F27">
         <v>20230402</v>
@@ -1352,16 +1335,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>20230402</v>
@@ -1375,16 +1358,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F29">
         <v>20230402</v>
@@ -1398,16 +1381,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F30">
         <v>20230402</v>
@@ -1421,16 +1404,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F31">
         <v>20230402</v>
@@ -1444,16 +1427,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>20230402</v>
@@ -1467,16 +1450,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F33">
         <v>20230409</v>
@@ -1490,16 +1473,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F34">
         <v>20230409</v>
@@ -1513,16 +1496,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F35">
         <v>20230409</v>
@@ -1536,16 +1519,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F36">
         <v>20230409</v>
@@ -1559,16 +1542,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F37">
         <v>20230409</v>
@@ -1582,16 +1565,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <v>20230409</v>
@@ -1605,16 +1588,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F39">
         <v>20230410</v>
@@ -1628,16 +1611,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>20230410</v>
@@ -1651,16 +1634,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <v>20230410</v>
@@ -1674,16 +1657,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F42">
         <v>20230410</v>
@@ -1697,16 +1680,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F43">
         <v>20230410</v>
@@ -1720,16 +1703,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F44">
         <v>20230410</v>
@@ -1743,16 +1726,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F45">
         <v>20230410</v>
@@ -1766,16 +1749,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F46">
         <v>20230410</v>
@@ -1789,16 +1772,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F47">
         <v>20230410</v>
@@ -1812,16 +1795,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F48">
         <v>20230410</v>
@@ -1835,16 +1818,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F49">
         <v>20230410</v>
@@ -1858,16 +1841,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F50">
         <v>20230410</v>
@@ -1881,16 +1864,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F51">
         <v>20230708</v>

--- a/SQL_Kozynest/qna.xlsx
+++ b/SQL_Kozynest/qna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SYK\Desktop\project\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FECB7A-196D-42E8-B984-37BDF36A1257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C4D56-4777-48E6-BC6C-837CADA8B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1188" windowWidth="12912" windowHeight="13212" xr2:uid="{12BBC76F-7EAB-44B5-8930-5B4B234FBEF9}"/>
+    <workbookView xWindow="1536" yWindow="1188" windowWidth="12912" windowHeight="13212" xr2:uid="{12BBC76F-7EAB-44B5-8930-5B4B234FBEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="72">
   <si>
     <t>qseq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,9 +318,6 @@
   <si>
     <t>기상악화로 인한 취소 문의</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mjkim87@naver.com</t>
   </si>
 </sst>
 </file>
@@ -698,7 +695,7 @@
   <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1312,7 +1309,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1496,7 +1493,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -1657,7 +1654,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
